--- a/Code/Results/Cases/Case_4_119/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_119/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.987759744467553</v>
+        <v>0.3532548847276757</v>
       </c>
       <c r="C2">
-        <v>0.3149065384818641</v>
+        <v>0.09797019725814948</v>
       </c>
       <c r="D2">
-        <v>0.1988951808301493</v>
+        <v>0.078275756824425</v>
       </c>
       <c r="E2">
-        <v>1.378153126283252</v>
+        <v>0.4096749627931899</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.550238509441215</v>
+        <v>1.231866220413735</v>
       </c>
       <c r="H2">
-        <v>0.9155738980349213</v>
+        <v>1.119606534948758</v>
       </c>
       <c r="I2">
-        <v>0.910942953598628</v>
+        <v>0.9479722294406159</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.28892728999881</v>
+        <v>0.4397157291636518</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8531037829401669</v>
+        <v>0.317814146708173</v>
       </c>
       <c r="C3">
-        <v>0.2710309639496415</v>
+        <v>0.08626813890626295</v>
       </c>
       <c r="D3">
-        <v>0.1719018126627105</v>
+        <v>0.07102748671820791</v>
       </c>
       <c r="E3">
-        <v>1.179823207469539</v>
+        <v>0.3573579241509464</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.40751427875648</v>
+        <v>1.198169773588859</v>
       </c>
       <c r="H3">
-        <v>0.8566786922420704</v>
+        <v>1.108746642098907</v>
       </c>
       <c r="I3">
-        <v>0.8499425169828072</v>
+        <v>0.9349257697296238</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.112153236674374</v>
+        <v>0.3930083870752128</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7713032089244507</v>
+        <v>0.2962143582678607</v>
       </c>
       <c r="C4">
-        <v>0.2445129340223247</v>
+        <v>0.07911324692055643</v>
       </c>
       <c r="D4">
-        <v>0.1555780224939838</v>
+        <v>0.06661546065564039</v>
       </c>
       <c r="E4">
-        <v>1.060857989133083</v>
+        <v>0.3253450692656088</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.322941563708724</v>
+        <v>1.17815168649895</v>
       </c>
       <c r="H4">
-        <v>0.8221447324324629</v>
+        <v>1.102574353334774</v>
       </c>
       <c r="I4">
-        <v>0.8141562719904911</v>
+        <v>0.9273496079584191</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.004917228907743</v>
+        <v>0.3645142541847406</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7381526637607578</v>
+        <v>0.2874525756803337</v>
       </c>
       <c r="C5">
-        <v>0.2337956038965103</v>
+        <v>0.07620492130918421</v>
       </c>
       <c r="D5">
-        <v>0.1489803824195519</v>
+        <v>0.06482709650134666</v>
       </c>
       <c r="E5">
-        <v>1.012974209098601</v>
+        <v>0.3123250101438799</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.289169230200343</v>
+        <v>1.170161772679378</v>
       </c>
       <c r="H5">
-        <v>0.8084455209318833</v>
+        <v>1.100183275447108</v>
       </c>
       <c r="I5">
-        <v>0.7999547877751993</v>
+        <v>0.9243708959740289</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.9614914131792318</v>
+        <v>0.3529485775373189</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7326581197077644</v>
+        <v>0.2860001180399081</v>
       </c>
       <c r="C6">
-        <v>0.2320209033769629</v>
+        <v>0.07572243286305991</v>
       </c>
       <c r="D6">
-        <v>0.1478879015507744</v>
+        <v>0.06453071542171074</v>
       </c>
       <c r="E6">
-        <v>1.00505607090895</v>
+        <v>0.3101645110505444</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.283600984619568</v>
+        <v>1.168845140177865</v>
       </c>
       <c r="H6">
-        <v>0.8061923575149024</v>
+        <v>1.099793725133253</v>
       </c>
       <c r="I6">
-        <v>0.7976186493778528</v>
+        <v>0.9238828268853254</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.9542956264167231</v>
+        <v>0.3510308660880241</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7708554314375249</v>
+        <v>0.296096030822099</v>
       </c>
       <c r="C7">
-        <v>0.2443680575322276</v>
+        <v>0.07907399478443722</v>
       </c>
       <c r="D7">
-        <v>0.1554888347374259</v>
+        <v>0.06659130351522435</v>
       </c>
       <c r="E7">
-        <v>1.060209939378439</v>
+        <v>0.3251693761003054</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.322483395615478</v>
+        <v>1.178043254739379</v>
       </c>
       <c r="H7">
-        <v>0.8219585121788953</v>
+        <v>1.102541604264559</v>
       </c>
       <c r="I7">
-        <v>0.8139632480182328</v>
+        <v>0.9273089969520001</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.004330533073613</v>
+        <v>0.3643580901006658</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9411246020217732</v>
+        <v>0.341001392680198</v>
       </c>
       <c r="C8">
-        <v>0.2996799276153297</v>
+        <v>0.09392890199691806</v>
       </c>
       <c r="D8">
-        <v>0.1895305974973951</v>
+        <v>0.07576851563985088</v>
       </c>
       <c r="E8">
-        <v>1.309115182576434</v>
+        <v>0.3916118538413684</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.500342985689429</v>
+        <v>1.220107498237923</v>
       </c>
       <c r="H8">
-        <v>0.8949064905309001</v>
+        <v>1.11575886271163</v>
       </c>
       <c r="I8">
-        <v>0.8895399835670688</v>
+        <v>0.9433832779957356</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.227670803341823</v>
+        <v>0.4235724861546259</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.283863347179675</v>
+        <v>0.4303507902402259</v>
       </c>
       <c r="C9">
-        <v>0.4123559742663758</v>
+        <v>0.1233118304149627</v>
       </c>
       <c r="D9">
-        <v>0.2586956771042423</v>
+        <v>0.09407525260088789</v>
       </c>
       <c r="E9">
-        <v>1.825208699252258</v>
+        <v>0.5228851543253228</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.877310831410654</v>
+        <v>1.307987707445079</v>
       </c>
       <c r="H9">
-        <v>1.052662802463914</v>
+        <v>1.145635176522944</v>
       </c>
       <c r="I9">
-        <v>1.052873730033511</v>
+        <v>0.9783814241279458</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.678717804389663</v>
+        <v>0.5411813646764756</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.544006015761767</v>
+        <v>0.4968077217168627</v>
       </c>
       <c r="C10">
-        <v>0.4990733795778226</v>
+        <v>0.1450732468407239</v>
       </c>
       <c r="D10">
-        <v>0.3116403312909029</v>
+        <v>0.107723042641183</v>
       </c>
       <c r="E10">
-        <v>2.230630085464341</v>
+        <v>0.6200862721951239</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.177574677618253</v>
+        <v>1.375935573942456</v>
       </c>
       <c r="H10">
-        <v>1.180337492446313</v>
+        <v>1.170034497764334</v>
       </c>
       <c r="I10">
-        <v>1.185059841878925</v>
+        <v>1.006258514832183</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.022381864517712</v>
+        <v>0.6285434326091206</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.664924147986369</v>
+        <v>0.5272231023531901</v>
       </c>
       <c r="C11">
-        <v>0.539737027363941</v>
+        <v>0.1550152803821447</v>
       </c>
       <c r="D11">
-        <v>0.3363576502984671</v>
+        <v>0.1139767103588696</v>
       </c>
       <c r="E11">
-        <v>2.423245183484738</v>
+        <v>0.6645043050562549</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.320823234640699</v>
+        <v>1.407602314675557</v>
       </c>
       <c r="H11">
-        <v>1.241704704189033</v>
+        <v>1.181674416706812</v>
       </c>
       <c r="I11">
-        <v>1.248608454959083</v>
+        <v>1.019420291403662</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.182511561580753</v>
+        <v>0.6685048858417417</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.711157059418127</v>
+        <v>0.5387673999024969</v>
       </c>
       <c r="C12">
-        <v>0.555345260626126</v>
+        <v>0.1587865260777619</v>
       </c>
       <c r="D12">
-        <v>0.3458245724430213</v>
+        <v>0.1163514456373349</v>
       </c>
       <c r="E12">
-        <v>2.497610031811689</v>
+        <v>0.6813558169657625</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.376179437867677</v>
+        <v>1.419704093723965</v>
       </c>
       <c r="H12">
-        <v>1.265486354557254</v>
+        <v>1.186160487618451</v>
       </c>
       <c r="I12">
-        <v>1.273238431528753</v>
+        <v>1.024474124982575</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.24380300551104</v>
+        <v>0.6836695892791909</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.701178960086395</v>
+        <v>0.5362799397754827</v>
       </c>
       <c r="C13">
-        <v>0.5519738037364732</v>
+        <v>0.1579740311040894</v>
       </c>
       <c r="D13">
-        <v>0.343780663890854</v>
+        <v>0.1158397083747786</v>
       </c>
       <c r="E13">
-        <v>2.481526407670898</v>
+        <v>0.6777251071516019</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.364205388944214</v>
+        <v>1.41709283183144</v>
       </c>
       <c r="H13">
-        <v>1.260339160632782</v>
+        <v>1.185190841240683</v>
       </c>
       <c r="I13">
-        <v>1.267907480790427</v>
+        <v>1.023382578237133</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.230571831143635</v>
+        <v>0.6804021597361611</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.668718406834472</v>
+        <v>0.5281723231676381</v>
       </c>
       <c r="C14">
-        <v>0.5410167023108556</v>
+        <v>0.1553254128839114</v>
       </c>
       <c r="D14">
-        <v>0.3371342556174284</v>
+        <v>0.1141719482396439</v>
       </c>
       <c r="E14">
-        <v>2.429333076386811</v>
+        <v>0.6658900460023887</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.325354196157576</v>
+        <v>1.408595717086683</v>
       </c>
       <c r="H14">
-        <v>1.243649908518535</v>
+        <v>1.182041916277001</v>
       </c>
       <c r="I14">
-        <v>1.250622982314496</v>
+        <v>1.019834671429109</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.187540268291343</v>
+        <v>0.669751847318139</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.648895525780489</v>
+        <v>0.5232096517583216</v>
       </c>
       <c r="C15">
-        <v>0.5343336104834577</v>
+        <v>0.1537039013318235</v>
       </c>
       <c r="D15">
-        <v>0.3330775864884288</v>
+        <v>0.1131512605626881</v>
       </c>
       <c r="E15">
-        <v>2.397556915882589</v>
+        <v>0.6586448889827352</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.30170634980928</v>
+        <v>1.403405392185277</v>
       </c>
       <c r="H15">
-        <v>1.233500264633705</v>
+        <v>1.180123320622727</v>
       </c>
       <c r="I15">
-        <v>1.240111751519009</v>
+        <v>1.017670580466003</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.161270807234729</v>
+        <v>0.6632324287517122</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.536161632070474</v>
+        <v>0.494823722282888</v>
       </c>
       <c r="C16">
-        <v>0.4964432500126179</v>
+        <v>0.1444243936981877</v>
       </c>
       <c r="D16">
-        <v>0.3100390503982453</v>
+        <v>0.1073152695804964</v>
       </c>
       <c r="E16">
-        <v>2.218227278079524</v>
+        <v>0.6171877017639105</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.168359670884371</v>
+        <v>1.373881430806506</v>
       </c>
       <c r="H16">
-        <v>1.176398957316707</v>
+        <v>1.16928472625014</v>
       </c>
       <c r="I16">
-        <v>1.180981652669274</v>
+        <v>1.00540808568347</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.012002277464802</v>
+        <v>0.6259363298707967</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.467712281054446</v>
+        <v>0.4774571027479055</v>
       </c>
       <c r="C17">
-        <v>0.4735333936672248</v>
+        <v>0.1387428389192564</v>
       </c>
       <c r="D17">
-        <v>0.296078453083453</v>
+        <v>0.1037467338188236</v>
       </c>
       <c r="E17">
-        <v>2.110475320075395</v>
+        <v>0.591808245056086</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.088363735060085</v>
+        <v>1.355964312872061</v>
       </c>
       <c r="H17">
-        <v>1.142258300224114</v>
+        <v>1.162774440034013</v>
       </c>
       <c r="I17">
-        <v>1.145631976627868</v>
+        <v>0.9980089535938106</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.921475167623953</v>
+        <v>0.6031131040369928</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.42857974792841</v>
+        <v>0.4674855674950891</v>
       </c>
       <c r="C18">
-        <v>0.4604682822090922</v>
+        <v>0.1354789568699459</v>
       </c>
       <c r="D18">
-        <v>0.288107150093623</v>
+        <v>0.1016984563676573</v>
       </c>
       <c r="E18">
-        <v>2.049252743120888</v>
+        <v>0.5772293974307416</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.042968412889593</v>
+        <v>1.34573001882444</v>
       </c>
       <c r="H18">
-        <v>1.122926167823067</v>
+        <v>1.15908074060431</v>
       </c>
       <c r="I18">
-        <v>1.12561635742091</v>
+        <v>0.9937983400951538</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.869756299191181</v>
+        <v>0.5900064638586855</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.415368904695498</v>
+        <v>0.4641123390586301</v>
       </c>
       <c r="C19">
-        <v>0.4560629163192971</v>
+        <v>0.1343745407108088</v>
       </c>
       <c r="D19">
-        <v>0.2854177886004408</v>
+        <v>0.1010056715894621</v>
       </c>
       <c r="E19">
-        <v>2.028646333379257</v>
+        <v>0.5722963940077364</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.027699826920468</v>
+        <v>1.342277040912535</v>
       </c>
       <c r="H19">
-        <v>1.116430974638831</v>
+        <v>1.15783883327137</v>
       </c>
       <c r="I19">
-        <v>1.118891686661698</v>
+        <v>0.9923804363188111</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.852302227983444</v>
+        <v>0.5855723158415742</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.474973729697155</v>
+        <v>0.4793040185253119</v>
       </c>
       <c r="C20">
-        <v>0.4759603546771132</v>
+        <v>0.1393472343349629</v>
       </c>
       <c r="D20">
-        <v>0.2975584219685317</v>
+        <v>0.1041261699360803</v>
       </c>
       <c r="E20">
-        <v>2.121866046994057</v>
+        <v>0.5945079735227807</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.096814615321534</v>
+        <v>1.357864245767047</v>
       </c>
       <c r="H20">
-        <v>1.145860619334769</v>
+        <v>1.163462204869347</v>
       </c>
       <c r="I20">
-        <v>1.149361739856374</v>
+        <v>0.9987919238556913</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.931074981468839</v>
+        <v>0.6055405317334532</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.678240178771631</v>
+        <v>0.5305530014961448</v>
       </c>
       <c r="C21">
-        <v>0.5442290697924079</v>
+        <v>0.1561031999507065</v>
       </c>
       <c r="D21">
-        <v>0.3390834242614886</v>
+        <v>0.1146616296651501</v>
       </c>
       <c r="E21">
-        <v>2.444622638332675</v>
+        <v>0.6693654189708269</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.336734244386918</v>
+        <v>1.411088521472124</v>
       </c>
       <c r="H21">
-        <v>1.248536592079944</v>
+        <v>1.182964702733585</v>
       </c>
       <c r="I21">
-        <v>1.255683867818519</v>
+        <v>1.020874879087543</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.200160999313994</v>
+        <v>0.6728792248893285</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.81371526393869</v>
+        <v>0.5642026410085066</v>
       </c>
       <c r="C22">
-        <v>0.5900896790882655</v>
+        <v>0.1670917072460725</v>
       </c>
       <c r="D22">
-        <v>0.3668551799701021</v>
+        <v>0.1215857221585708</v>
       </c>
       <c r="E22">
-        <v>2.664020587003591</v>
+        <v>0.7184731026389528</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.500099747391857</v>
+        <v>1.446517082146698</v>
       </c>
       <c r="H22">
-        <v>1.318847850998708</v>
+        <v>1.196167287807555</v>
       </c>
       <c r="I22">
-        <v>1.328510001990196</v>
+        <v>1.035714269632138</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.379896980641774</v>
+        <v>0.7170767134998925</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.741142204889627</v>
+        <v>0.5462288927553232</v>
       </c>
       <c r="C23">
-        <v>0.5654862807618599</v>
+        <v>0.1612234078675954</v>
       </c>
       <c r="D23">
-        <v>0.3519691036392771</v>
+        <v>0.1178866404372769</v>
       </c>
       <c r="E23">
-        <v>2.546056203571595</v>
+        <v>0.6922457352216469</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.412251158534417</v>
+        <v>1.42754884420043</v>
       </c>
       <c r="H23">
-        <v>1.281002012255414</v>
+        <v>1.189078857307521</v>
       </c>
       <c r="I23">
-        <v>1.28930851316224</v>
+        <v>1.027756749372799</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.283574267531804</v>
+        <v>0.6934703222958092</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.471690149184923</v>
+        <v>0.4784689881579425</v>
       </c>
       <c r="C24">
-        <v>0.474862797794998</v>
+        <v>0.1390739793427542</v>
       </c>
       <c r="D24">
-        <v>0.2968891584368265</v>
+        <v>0.1039546165320786</v>
       </c>
       <c r="E24">
-        <v>2.116714057885915</v>
+        <v>0.5932873886833647</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.092992129136007</v>
+        <v>1.357005079083734</v>
       </c>
       <c r="H24">
-        <v>1.144231094757572</v>
+        <v>1.163151113320652</v>
       </c>
       <c r="I24">
-        <v>1.147674561953707</v>
+        <v>0.9984378083396024</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.926733897011133</v>
+        <v>0.6044430458142074</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.189913812532922</v>
+        <v>0.4060387063375401</v>
       </c>
       <c r="C25">
-        <v>0.3812925125361915</v>
+        <v>0.1153339024261015</v>
       </c>
       <c r="D25">
-        <v>0.239662921804964</v>
+        <v>0.08908868760214261</v>
       </c>
       <c r="E25">
-        <v>1.681725569657985</v>
+        <v>0.4872512108890419</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.7717248690698</v>
+        <v>1.283626722099712</v>
       </c>
       <c r="H25">
-        <v>1.008141386139926</v>
+        <v>1.13712541292935</v>
       </c>
       <c r="I25">
-        <v>1.006783030070494</v>
+        <v>0.9685367247694856</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.554883859124516</v>
+        <v>0.5092007997978101</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_119/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_119/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3532548847276757</v>
+        <v>0.9877597444677235</v>
       </c>
       <c r="C2">
-        <v>0.09797019725814948</v>
+        <v>0.3149065384817504</v>
       </c>
       <c r="D2">
-        <v>0.078275756824425</v>
+        <v>0.198895180829993</v>
       </c>
       <c r="E2">
-        <v>0.4096749627931899</v>
+        <v>1.378153126283266</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.231866220413735</v>
+        <v>1.550238509441272</v>
       </c>
       <c r="H2">
-        <v>1.119606534948758</v>
+        <v>0.9155738980350634</v>
       </c>
       <c r="I2">
-        <v>0.9479722294406159</v>
+        <v>0.9109429535986422</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4397157291636518</v>
+        <v>1.28892728999881</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.317814146708173</v>
+        <v>0.8531037829400248</v>
       </c>
       <c r="C3">
-        <v>0.08626813890626295</v>
+        <v>0.2710309639496415</v>
       </c>
       <c r="D3">
-        <v>0.07102748671820791</v>
+        <v>0.1719018126628953</v>
       </c>
       <c r="E3">
-        <v>0.3573579241509464</v>
+        <v>1.179823207469468</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.198169773588859</v>
+        <v>1.407514278756395</v>
       </c>
       <c r="H3">
-        <v>1.108746642098907</v>
+        <v>0.856678692242042</v>
       </c>
       <c r="I3">
-        <v>0.9349257697296238</v>
+        <v>0.849942516982793</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3930083870752128</v>
+        <v>1.112153236674459</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2962143582678607</v>
+        <v>0.7713032089244223</v>
       </c>
       <c r="C4">
-        <v>0.07911324692055643</v>
+        <v>0.2445129340223104</v>
       </c>
       <c r="D4">
-        <v>0.06661546065564039</v>
+        <v>0.1555780224941117</v>
       </c>
       <c r="E4">
-        <v>0.3253450692656088</v>
+        <v>1.060857989133154</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.17815168649895</v>
+        <v>1.322941563708696</v>
       </c>
       <c r="H4">
-        <v>1.102574353334774</v>
+        <v>0.8221447324324913</v>
       </c>
       <c r="I4">
-        <v>0.9273496079584191</v>
+        <v>0.8141562719904982</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3645142541847406</v>
+        <v>1.004917228907658</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2874525756803337</v>
+        <v>0.7381526637608147</v>
       </c>
       <c r="C5">
-        <v>0.07620492130918421</v>
+        <v>0.233795603896354</v>
       </c>
       <c r="D5">
-        <v>0.06482709650134666</v>
+        <v>0.1489803824195093</v>
       </c>
       <c r="E5">
-        <v>0.3123250101438799</v>
+        <v>1.012974209098616</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.170161772679378</v>
+        <v>1.289169230200315</v>
       </c>
       <c r="H5">
-        <v>1.100183275447108</v>
+        <v>0.808445520931997</v>
       </c>
       <c r="I5">
-        <v>0.9243708959740289</v>
+        <v>0.7999547877751993</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3529485775373189</v>
+        <v>0.9614914131792034</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2860001180399081</v>
+        <v>0.7326581197077644</v>
       </c>
       <c r="C6">
-        <v>0.07572243286305991</v>
+        <v>0.2320209033771334</v>
       </c>
       <c r="D6">
-        <v>0.06453071542171074</v>
+        <v>0.1478879015508596</v>
       </c>
       <c r="E6">
-        <v>0.3101645110505444</v>
+        <v>1.00505607090895</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.168845140177865</v>
+        <v>1.283600984619454</v>
       </c>
       <c r="H6">
-        <v>1.099793725133253</v>
+        <v>0.8061923575149308</v>
       </c>
       <c r="I6">
-        <v>0.9238828268853254</v>
+        <v>0.7976186493778812</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3510308660880241</v>
+        <v>0.9542956264166946</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.296096030822099</v>
+        <v>0.7708554314373828</v>
       </c>
       <c r="C7">
-        <v>0.07907399478443722</v>
+        <v>0.2443680575321139</v>
       </c>
       <c r="D7">
-        <v>0.06659130351522435</v>
+        <v>0.1554888347373264</v>
       </c>
       <c r="E7">
-        <v>0.3251693761003054</v>
+        <v>1.060209939378439</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.178043254739379</v>
+        <v>1.322483395615393</v>
       </c>
       <c r="H7">
-        <v>1.102541604264559</v>
+        <v>0.8219585121787816</v>
       </c>
       <c r="I7">
-        <v>0.9273089969520001</v>
+        <v>0.8139632480182186</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3643580901006658</v>
+        <v>1.004330533073556</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.341001392680198</v>
+        <v>0.9411246020218869</v>
       </c>
       <c r="C8">
-        <v>0.09392890199691806</v>
+        <v>0.2996799276153297</v>
       </c>
       <c r="D8">
-        <v>0.07576851563985088</v>
+        <v>0.1895305974976935</v>
       </c>
       <c r="E8">
-        <v>0.3916118538413684</v>
+        <v>1.309115182576519</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.220107498237923</v>
+        <v>1.500342985689485</v>
       </c>
       <c r="H8">
-        <v>1.11575886271163</v>
+        <v>0.8949064905307864</v>
       </c>
       <c r="I8">
-        <v>0.9433832779957356</v>
+        <v>0.8895399835670901</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4235724861546259</v>
+        <v>1.227670803341823</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4303507902402259</v>
+        <v>1.283863347179619</v>
       </c>
       <c r="C9">
-        <v>0.1233118304149627</v>
+        <v>0.4123559742664895</v>
       </c>
       <c r="D9">
-        <v>0.09407525260088789</v>
+        <v>0.2586956771041287</v>
       </c>
       <c r="E9">
-        <v>0.5228851543253228</v>
+        <v>1.825208699252215</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.307987707445079</v>
+        <v>1.877310831410654</v>
       </c>
       <c r="H9">
-        <v>1.145635176522944</v>
+        <v>1.052662802464027</v>
       </c>
       <c r="I9">
-        <v>0.9783814241279458</v>
+        <v>1.052873730033525</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.5411813646764756</v>
+        <v>1.678717804389748</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4968077217168627</v>
+        <v>1.544006015761767</v>
       </c>
       <c r="C10">
-        <v>0.1450732468407239</v>
+        <v>0.4990733795775952</v>
       </c>
       <c r="D10">
-        <v>0.107723042641183</v>
+        <v>0.3116403312908886</v>
       </c>
       <c r="E10">
-        <v>0.6200862721951239</v>
+        <v>2.230630085464313</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.375935573942456</v>
+        <v>2.177574677618281</v>
       </c>
       <c r="H10">
-        <v>1.170034497764334</v>
+        <v>1.180337492446313</v>
       </c>
       <c r="I10">
-        <v>1.006258514832183</v>
+        <v>1.185059841878925</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.6285434326091206</v>
+        <v>2.022381864517598</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5272231023531901</v>
+        <v>1.664924147986454</v>
       </c>
       <c r="C11">
-        <v>0.1550152803821447</v>
+        <v>0.5397370273640831</v>
       </c>
       <c r="D11">
-        <v>0.1139767103588696</v>
+        <v>0.3363576502982539</v>
       </c>
       <c r="E11">
-        <v>0.6645043050562549</v>
+        <v>2.42324518348471</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.407602314675557</v>
+        <v>2.320823234640756</v>
       </c>
       <c r="H11">
-        <v>1.181674416706812</v>
+        <v>1.241704704189061</v>
       </c>
       <c r="I11">
-        <v>1.019420291403662</v>
+        <v>1.248608454959083</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.6685048858417417</v>
+        <v>2.18251156158081</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5387673999024969</v>
+        <v>1.711157059418156</v>
       </c>
       <c r="C12">
-        <v>0.1587865260777619</v>
+        <v>0.5553452606258986</v>
       </c>
       <c r="D12">
-        <v>0.1163514456373349</v>
+        <v>0.345824572442865</v>
       </c>
       <c r="E12">
-        <v>0.6813558169657625</v>
+        <v>2.497610031811675</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.419704093723965</v>
+        <v>2.376179437867648</v>
       </c>
       <c r="H12">
-        <v>1.186160487618451</v>
+        <v>1.265486354557254</v>
       </c>
       <c r="I12">
-        <v>1.024474124982575</v>
+        <v>1.273238431528753</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.6836695892791909</v>
+        <v>2.243803005510983</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5362799397754827</v>
+        <v>1.701178960086253</v>
       </c>
       <c r="C13">
-        <v>0.1579740311040894</v>
+        <v>0.5519738037365016</v>
       </c>
       <c r="D13">
-        <v>0.1158397083747786</v>
+        <v>0.3437806638909819</v>
       </c>
       <c r="E13">
-        <v>0.6777251071516019</v>
+        <v>2.481526407670941</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.41709283183144</v>
+        <v>2.364205388944214</v>
       </c>
       <c r="H13">
-        <v>1.185190841240683</v>
+        <v>1.260339160632782</v>
       </c>
       <c r="I13">
-        <v>1.023382578237133</v>
+        <v>1.267907480790427</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.6804021597361611</v>
+        <v>2.230571831143578</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5281723231676381</v>
+        <v>1.6687184068345</v>
       </c>
       <c r="C14">
-        <v>0.1553254128839114</v>
+        <v>0.541016702311083</v>
       </c>
       <c r="D14">
-        <v>0.1141719482396439</v>
+        <v>0.3371342556174</v>
       </c>
       <c r="E14">
-        <v>0.6658900460023887</v>
+        <v>2.429333076386797</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.408595717086683</v>
+        <v>2.32535419615769</v>
       </c>
       <c r="H14">
-        <v>1.182041916277001</v>
+        <v>1.243649908518591</v>
       </c>
       <c r="I14">
-        <v>1.019834671429109</v>
+        <v>1.250622982314496</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.669751847318139</v>
+        <v>2.187540268291286</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5232096517583216</v>
+        <v>1.648895525780546</v>
       </c>
       <c r="C15">
-        <v>0.1537039013318235</v>
+        <v>0.5343336104835714</v>
       </c>
       <c r="D15">
-        <v>0.1131512605626881</v>
+        <v>0.333077586488514</v>
       </c>
       <c r="E15">
-        <v>0.6586448889827352</v>
+        <v>2.397556915882603</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.403405392185277</v>
+        <v>2.301706349809336</v>
       </c>
       <c r="H15">
-        <v>1.180123320622727</v>
+        <v>1.233500264633903</v>
       </c>
       <c r="I15">
-        <v>1.017670580466003</v>
+        <v>1.240111751519009</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.6632324287517122</v>
+        <v>2.161270807234729</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.494823722282888</v>
+        <v>1.536161632070616</v>
       </c>
       <c r="C16">
-        <v>0.1444243936981877</v>
+        <v>0.4964432500124474</v>
       </c>
       <c r="D16">
-        <v>0.1073152695804964</v>
+        <v>0.3100390503984727</v>
       </c>
       <c r="E16">
-        <v>0.6171877017639105</v>
+        <v>2.218227278079553</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.373881430806506</v>
+        <v>2.168359670884342</v>
       </c>
       <c r="H16">
-        <v>1.16928472625014</v>
+        <v>1.176398957316593</v>
       </c>
       <c r="I16">
-        <v>1.00540808568347</v>
+        <v>1.180981652669274</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.6259363298707967</v>
+        <v>2.012002277464859</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4774571027479055</v>
+        <v>1.467712281054219</v>
       </c>
       <c r="C17">
-        <v>0.1387428389192564</v>
+        <v>0.4735333936668269</v>
       </c>
       <c r="D17">
-        <v>0.1037467338188236</v>
+        <v>0.2960784530835667</v>
       </c>
       <c r="E17">
-        <v>0.591808245056086</v>
+        <v>2.110475320075452</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.355964312872061</v>
+        <v>2.088363735060057</v>
       </c>
       <c r="H17">
-        <v>1.162774440034013</v>
+        <v>1.142258300224114</v>
       </c>
       <c r="I17">
-        <v>0.9980089535938106</v>
+        <v>1.145631976627868</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.6031131040369928</v>
+        <v>1.921475167623868</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4674855674950891</v>
+        <v>1.428579747928438</v>
       </c>
       <c r="C18">
-        <v>0.1354789568699459</v>
+        <v>0.4604682822090922</v>
       </c>
       <c r="D18">
-        <v>0.1016984563676573</v>
+        <v>0.2881071500936372</v>
       </c>
       <c r="E18">
-        <v>0.5772293974307416</v>
+        <v>2.049252743120874</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.34573001882444</v>
+        <v>2.042968412889564</v>
       </c>
       <c r="H18">
-        <v>1.15908074060431</v>
+        <v>1.122926167823067</v>
       </c>
       <c r="I18">
-        <v>0.9937983400951538</v>
+        <v>1.12561635742091</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5900064638586855</v>
+        <v>1.869756299191181</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4641123390586301</v>
+        <v>1.415368904695555</v>
       </c>
       <c r="C19">
-        <v>0.1343745407108088</v>
+        <v>0.456062916319155</v>
       </c>
       <c r="D19">
-        <v>0.1010056715894621</v>
+        <v>0.2854177886005544</v>
       </c>
       <c r="E19">
-        <v>0.5722963940077364</v>
+        <v>2.028646333379314</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.342277040912535</v>
+        <v>2.027699826920525</v>
       </c>
       <c r="H19">
-        <v>1.15783883327137</v>
+        <v>1.116430974638973</v>
       </c>
       <c r="I19">
-        <v>0.9923804363188111</v>
+        <v>1.118891686661698</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5855723158415742</v>
+        <v>1.852302227983444</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4793040185253119</v>
+        <v>1.474973729697155</v>
       </c>
       <c r="C20">
-        <v>0.1393472343349629</v>
+        <v>0.4759603546771132</v>
       </c>
       <c r="D20">
-        <v>0.1041261699360803</v>
+        <v>0.297558421968489</v>
       </c>
       <c r="E20">
-        <v>0.5945079735227807</v>
+        <v>2.121866046994043</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.357864245767047</v>
+        <v>2.096814615321591</v>
       </c>
       <c r="H20">
-        <v>1.163462204869347</v>
+        <v>1.145860619334741</v>
       </c>
       <c r="I20">
-        <v>0.9987919238556913</v>
+        <v>1.149361739856374</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.6055405317334532</v>
+        <v>1.931074981468839</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5305530014961448</v>
+        <v>1.678240178771745</v>
       </c>
       <c r="C21">
-        <v>0.1561031999507065</v>
+        <v>0.5442290697923795</v>
       </c>
       <c r="D21">
-        <v>0.1146616296651501</v>
+        <v>0.3390834242614602</v>
       </c>
       <c r="E21">
-        <v>0.6693654189708269</v>
+        <v>2.444622638332646</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.411088521472124</v>
+        <v>2.33673424438706</v>
       </c>
       <c r="H21">
-        <v>1.182964702733585</v>
+        <v>1.248536592079915</v>
       </c>
       <c r="I21">
-        <v>1.020874879087543</v>
+        <v>1.255683867818519</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.6728792248893285</v>
+        <v>2.200160999313965</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5642026410085066</v>
+        <v>1.81371526393869</v>
       </c>
       <c r="C22">
-        <v>0.1670917072460725</v>
+        <v>0.5900896790880381</v>
       </c>
       <c r="D22">
-        <v>0.1215857221585708</v>
+        <v>0.3668551799698747</v>
       </c>
       <c r="E22">
-        <v>0.7184731026389528</v>
+        <v>2.664020587003634</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.446517082146698</v>
+        <v>2.500099747391914</v>
       </c>
       <c r="H22">
-        <v>1.196167287807555</v>
+        <v>1.318847850998708</v>
       </c>
       <c r="I22">
-        <v>1.035714269632138</v>
+        <v>1.32851000199021</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.7170767134998925</v>
+        <v>2.37989698064186</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5462288927553232</v>
+        <v>1.741142204889655</v>
       </c>
       <c r="C23">
-        <v>0.1612234078675954</v>
+        <v>0.5654862807623431</v>
       </c>
       <c r="D23">
-        <v>0.1178866404372769</v>
+        <v>0.351969103639405</v>
       </c>
       <c r="E23">
-        <v>0.6922457352216469</v>
+        <v>2.546056203571595</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.42754884420043</v>
+        <v>2.412251158534275</v>
       </c>
       <c r="H23">
-        <v>1.189078857307521</v>
+        <v>1.281002012255527</v>
       </c>
       <c r="I23">
-        <v>1.027756749372799</v>
+        <v>1.289308513162254</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.6934703222958092</v>
+        <v>2.28357426753189</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4784689881579425</v>
+        <v>1.471690149184838</v>
       </c>
       <c r="C24">
-        <v>0.1390739793427542</v>
+        <v>0.4748627977947706</v>
       </c>
       <c r="D24">
-        <v>0.1039546165320786</v>
+        <v>0.2968891584365849</v>
       </c>
       <c r="E24">
-        <v>0.5932873886833647</v>
+        <v>2.116714057885943</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.357005079083734</v>
+        <v>2.092992129136007</v>
       </c>
       <c r="H24">
-        <v>1.163151113320652</v>
+        <v>1.144231094757544</v>
       </c>
       <c r="I24">
-        <v>0.9984378083396024</v>
+        <v>1.147674561953707</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.6044430458142074</v>
+        <v>1.926733897011189</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4060387063375401</v>
+        <v>1.189913812533035</v>
       </c>
       <c r="C25">
-        <v>0.1153339024261015</v>
+        <v>0.3812925125361062</v>
       </c>
       <c r="D25">
-        <v>0.08908868760214261</v>
+        <v>0.239662921804964</v>
       </c>
       <c r="E25">
-        <v>0.4872512108890419</v>
+        <v>1.681725569657999</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.283626722099712</v>
+        <v>1.771724869069857</v>
       </c>
       <c r="H25">
-        <v>1.13712541292935</v>
+        <v>1.008141386139926</v>
       </c>
       <c r="I25">
-        <v>0.9685367247694856</v>
+        <v>1.00678303007048</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5092007997978101</v>
+        <v>1.554883859124573</v>
       </c>
       <c r="L25">
         <v>0</v>
